--- a/data/trans_orig/IP1016-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1016-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{353A358D-F657-4709-9B55-E7077149F1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{254F3DAB-08F2-4290-95D9-3D4E32EB9289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E0DE4A95-977A-4DA9-8BB4-2444925B85B1}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{BC4BD835-5571-47B2-9278-17E2F5353D63}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -106,6 +106,27 @@
     <t>0,29%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -127,27 +148,6 @@
     <t>0,24%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
     <t>99,82%</t>
   </si>
   <si>
@@ -175,6 +175,24 @@
     <t>0,28%</t>
   </si>
   <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
     <t>99,52%</t>
   </si>
   <si>
@@ -191,24 +209,6 @@
   </si>
   <si>
     <t>0,25%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
   </si>
   <si>
     <t>99,9%</t>
@@ -663,7 +663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351699CA-D80D-48D9-A93A-D92FC1B77639}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B32A15-FC71-468E-A504-B6504B1844D6}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -936,10 +936,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D7" s="7">
-        <v>281498</v>
+        <v>218041</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
@@ -951,10 +951,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="I7" s="7">
-        <v>265603</v>
+        <v>205222</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
@@ -966,10 +966,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>816</v>
+        <v>634</v>
       </c>
       <c r="N7" s="7">
-        <v>547101</v>
+        <v>423263</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
@@ -1038,10 +1038,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D9" s="7">
-        <v>281498</v>
+        <v>218041</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1053,10 +1053,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="I9" s="7">
-        <v>265603</v>
+        <v>205222</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1068,10 +1068,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>816</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>547101</v>
+        <v>423263</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1091,10 +1091,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D10" s="7">
-        <v>218041</v>
+        <v>281498</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -1106,10 +1106,10 @@
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="I10" s="7">
-        <v>205222</v>
+        <v>265603</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
@@ -1121,10 +1121,10 @@
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>634</v>
+        <v>816</v>
       </c>
       <c r="N10" s="7">
-        <v>423263</v>
+        <v>547101</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
@@ -1193,10 +1193,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D12" s="7">
-        <v>218041</v>
+        <v>281498</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1208,10 +1208,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="I12" s="7">
-        <v>205222</v>
+        <v>265603</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1223,10 +1223,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>816</v>
       </c>
       <c r="N12" s="7">
-        <v>423263</v>
+        <v>547101</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1409,7 +1409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFF4923-6FB1-4056-B13F-D2969AB15C5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F03D4AD-517B-4B07-8BC7-2FFBEE54AF87}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1682,49 +1682,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="D7" s="7">
-        <v>270354</v>
+        <v>240100</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>318</v>
+      </c>
+      <c r="I7" s="7">
+        <v>227498</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>362</v>
-      </c>
-      <c r="I7" s="7">
-        <v>254202</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="7">
+        <v>650</v>
+      </c>
+      <c r="N7" s="7">
+        <v>467598</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="7">
-        <v>760</v>
-      </c>
-      <c r="N7" s="7">
-        <v>524556</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1745,34 +1745,34 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>680</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>1</v>
+      </c>
+      <c r="N8" s="7">
+        <v>680</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>50</v>
@@ -1784,10 +1784,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="D9" s="7">
-        <v>270354</v>
+        <v>240100</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1799,10 +1799,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="I9" s="7">
-        <v>254202</v>
+        <v>228178</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1814,10 +1814,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>760</v>
+        <v>651</v>
       </c>
       <c r="N9" s="7">
-        <v>524556</v>
+        <v>468278</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1837,49 +1837,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="D10" s="7">
-        <v>240100</v>
+        <v>270354</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>318</v>
+        <v>362</v>
       </c>
       <c r="I10" s="7">
-        <v>227498</v>
+        <v>254202</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>650</v>
+        <v>760</v>
       </c>
       <c r="N10" s="7">
-        <v>467598</v>
+        <v>524556</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1900,34 +1900,34 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>680</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>680</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>56</v>
@@ -1939,10 +1939,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="D12" s="7">
-        <v>240100</v>
+        <v>270354</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1954,10 +1954,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="I12" s="7">
-        <v>228178</v>
+        <v>254202</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1969,10 +1969,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>651</v>
+        <v>760</v>
       </c>
       <c r="N12" s="7">
-        <v>468278</v>
+        <v>524556</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2016,7 +2016,7 @@
         <v>57</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -2070,7 +2070,7 @@
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2155,7 +2155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3070B4F6-53F5-4F4B-BE84-BED2540EF225}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D80ACF-F208-4A1E-BB03-BC9C3E8A694F}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2312,7 +2312,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2366,7 +2366,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,49 +2428,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="D7" s="7">
-        <v>280839</v>
+        <v>250052</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="I7" s="7">
-        <v>267770</v>
+        <v>235333</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>755</v>
+        <v>723</v>
       </c>
       <c r="N7" s="7">
-        <v>548609</v>
+        <v>485385</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,19 +2479,19 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>790</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2506,22 +2506,22 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>790</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2530,10 +2530,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D9" s="7">
-        <v>281629</v>
+        <v>250052</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -2545,10 +2545,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="I9" s="7">
-        <v>267770</v>
+        <v>235333</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2560,10 +2560,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>756</v>
+        <v>723</v>
       </c>
       <c r="N9" s="7">
-        <v>549399</v>
+        <v>485385</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -2583,49 +2583,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D10" s="7">
-        <v>250052</v>
+        <v>280839</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="I10" s="7">
-        <v>235333</v>
+        <v>267770</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>723</v>
+        <v>755</v>
       </c>
       <c r="N10" s="7">
-        <v>485385</v>
+        <v>548609</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,19 +2634,19 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2661,22 +2661,22 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,10 +2685,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D12" s="7">
-        <v>250052</v>
+        <v>281629</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2700,10 +2700,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="I12" s="7">
-        <v>235333</v>
+        <v>267770</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2715,10 +2715,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="N12" s="7">
-        <v>485385</v>
+        <v>549399</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>

--- a/data/trans_orig/IP1016-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1016-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{254F3DAB-08F2-4290-95D9-3D4E32EB9289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BCF9238-55B6-42BB-B1D4-616FF4BEDF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{BC4BD835-5571-47B2-9278-17E2F5353D63}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8F860878-4C55-4F36-994D-0788072D2363}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="110">
   <si>
     <t>Menores según si padecen tumor maligno en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,7 +67,25 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
   </si>
   <si>
     <t>No</t>
@@ -76,202 +94,280 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen tumor maligno en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
     <t>99,43%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
   </si>
   <si>
     <t>99,42%</t>
   </si>
   <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen tumor maligno en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
     <t>99,95%</t>
   </si>
   <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
+    <t>99,77%</t>
   </si>
   <si>
     <t>Menores según si padecen tumor maligno en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
   </si>
   <si>
     <t>99,89%</t>
   </si>
   <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
+    <t>99,67%</t>
   </si>
 </sst>
 </file>
@@ -282,7 +378,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -378,39 +474,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -462,7 +558,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -573,13 +669,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -588,6 +677,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -652,19 +748,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B32A15-FC71-468E-A504-B6504B1844D6}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4E6BFD-4442-4B52-B911-5538F90FC9FC}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -781,10 +897,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>223161</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -796,34 +912,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>210196</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>433357</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -832,10 +948,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>121380</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -847,34 +963,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>106171</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>227551</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -883,49 +999,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="D6" s="7">
-        <v>223161</v>
+        <v>121380</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="I6" s="7">
-        <v>210196</v>
+        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>654</v>
+        <v>344</v>
       </c>
       <c r="N6" s="7">
-        <v>433357</v>
+        <v>227551</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -936,49 +1052,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>218041</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H7" s="7">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>205222</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M7" s="7">
-        <v>634</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>423263</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -987,49 +1103,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>382</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>253756</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>253205</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>761</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>506961</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1038,49 +1154,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>218041</v>
+        <v>253756</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="I9" s="7">
-        <v>205222</v>
+        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>634</v>
+        <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>423263</v>
+        <v>506961</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1091,49 +1207,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>422</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>281498</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H10" s="7">
-        <v>394</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>265603</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M10" s="7">
-        <v>816</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>547101</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1142,49 +1258,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>141515</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>127548</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>269063</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1193,102 +1309,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="D12" s="7">
-        <v>281498</v>
+        <v>141515</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I12" s="7">
-        <v>265603</v>
+        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>816</v>
+        <v>403</v>
       </c>
       <c r="N12" s="7">
-        <v>547101</v>
+        <v>269063</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1086</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>722700</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="H13" s="7">
-        <v>1018</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>681021</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M13" s="7">
-        <v>2104</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>1403721</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1297,49 +1413,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>206049</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>194097</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>400146</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1348,55 +1464,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>310</v>
+      </c>
+      <c r="D15" s="7">
+        <v>206049</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>286</v>
+      </c>
+      <c r="I15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>596</v>
+      </c>
+      <c r="N15" s="7">
+        <v>400146</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
         <v>1086</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D17" s="7">
         <v>722700</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I17" s="7">
         <v>681021</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="7">
         <v>2104</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N17" s="7">
         <v>1403721</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1086</v>
+      </c>
+      <c r="D18" s="7">
+        <v>722700</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="I18" s="7">
+        <v>681021</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
+        <v>2104</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1403721</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1409,8 +1686,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F03D4AD-517B-4B07-8BC7-2FFBEE54AF87}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB1ED13-0BCF-4BA2-B495-D2914BE2EFDA}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1426,7 +1703,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1527,10 +1804,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>237688</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1539,13 +1816,13 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H4" s="7">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>224548</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -1554,22 +1831,22 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M4" s="7">
-        <v>673</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>462236</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1578,49 +1855,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>144513</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>146281</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>290794</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1629,49 +1906,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>336</v>
+        <v>205</v>
       </c>
       <c r="D6" s="7">
-        <v>237688</v>
+        <v>144513</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>337</v>
+        <v>218</v>
       </c>
       <c r="I6" s="7">
-        <v>224548</v>
+        <v>146281</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>673</v>
+        <v>423</v>
       </c>
       <c r="N6" s="7">
-        <v>462236</v>
+        <v>290794</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1682,49 +1959,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>240100</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="H7" s="7">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>227498</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="M7" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>467598</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1733,49 +2010,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>267101</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>337</v>
       </c>
       <c r="I8" s="7">
-        <v>680</v>
+        <v>234476</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>708</v>
       </c>
       <c r="N8" s="7">
-        <v>680</v>
+        <v>501576</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1784,49 +2061,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="D9" s="7">
-        <v>240100</v>
+        <v>267101</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="I9" s="7">
-        <v>228178</v>
+        <v>234476</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>651</v>
+        <v>708</v>
       </c>
       <c r="N9" s="7">
-        <v>468278</v>
+        <v>501576</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1837,49 +2114,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>398</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>270354</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>362</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>254202</v>
+        <v>680</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>760</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>524556</v>
+        <v>680</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1888,49 +2165,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>158571</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>154154</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>447</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>312725</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1939,102 +2216,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>398</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7">
-        <v>270354</v>
+        <v>158571</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>362</v>
+        <v>220</v>
       </c>
       <c r="I12" s="7">
-        <v>254202</v>
+        <v>154834</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>760</v>
+        <v>448</v>
       </c>
       <c r="N12" s="7">
-        <v>524556</v>
+        <v>313405</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1066</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>748142</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="H13" s="7">
-        <v>1017</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>706248</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>2083</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>1454390</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,49 +2320,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>177957</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>243</v>
       </c>
       <c r="I14" s="7">
-        <v>680</v>
+        <v>171337</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>505</v>
       </c>
       <c r="N14" s="7">
-        <v>680</v>
+        <v>349294</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2094,55 +2371,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>262</v>
+      </c>
+      <c r="D15" s="7">
+        <v>177957</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>243</v>
+      </c>
+      <c r="I15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>505</v>
+      </c>
+      <c r="N15" s="7">
+        <v>349294</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>680</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1</v>
+      </c>
+      <c r="N16" s="7">
+        <v>680</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
         <v>1066</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D17" s="7">
         <v>748142</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1017</v>
+      </c>
+      <c r="I17" s="7">
+        <v>706248</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2083</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1454390</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1066</v>
+      </c>
+      <c r="D18" s="7">
+        <v>748142</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>706928</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>2084</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1455070</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2155,8 +2593,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D80ACF-F208-4A1E-BB03-BC9C3E8A694F}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267BB423-AF2A-4B76-8AFD-009F031F7978}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2172,7 +2610,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2273,49 +2711,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>213163</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="H4" s="7">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>201268</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M4" s="7">
-        <v>647</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>414431</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2324,49 +2762,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>124164</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>131654</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>255818</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2375,49 +2813,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>213163</v>
+        <v>124164</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="I6" s="7">
-        <v>201268</v>
+        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>647</v>
+        <v>398</v>
       </c>
       <c r="N6" s="7">
-        <v>414431</v>
+        <v>255818</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,49 +2866,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>250052</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H7" s="7">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>235333</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M7" s="7">
-        <v>723</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>485385</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,49 +2917,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>258061</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>210517</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>712</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>468578</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2530,49 +2968,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>250052</v>
+        <v>258061</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>235333</v>
+        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="N9" s="7">
-        <v>485385</v>
+        <v>468578</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,49 +3021,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>380</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>280839</v>
+        <v>790</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="H10" s="7">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>267770</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>790</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>755</v>
-      </c>
-      <c r="N10" s="7">
-        <v>548609</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,49 +3072,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>262</v>
       </c>
       <c r="D11" s="7">
-        <v>790</v>
+        <v>187782</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>188899</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="7">
+        <v>534</v>
+      </c>
+      <c r="N11" s="7">
+        <v>376681</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>790</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,102 +3123,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="D12" s="7">
-        <v>281629</v>
+        <v>188572</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="I12" s="7">
-        <v>267770</v>
+        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>756</v>
+        <v>535</v>
       </c>
       <c r="N12" s="7">
-        <v>549399</v>
+        <v>377471</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1064</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>744054</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="H13" s="7">
-        <v>1061</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>704371</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M13" s="7">
-        <v>2125</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>1448425</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,49 +3227,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>235</v>
       </c>
       <c r="D14" s="7">
-        <v>790</v>
+        <v>174048</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>173301</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>481</v>
       </c>
       <c r="N14" s="7">
-        <v>790</v>
+        <v>347348</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,55 +3278,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>235</v>
+      </c>
+      <c r="D15" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>246</v>
+      </c>
+      <c r="I15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>481</v>
+      </c>
+      <c r="N15" s="7">
+        <v>347348</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>790</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1</v>
+      </c>
+      <c r="N16" s="7">
+        <v>790</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1064</v>
+      </c>
+      <c r="D17" s="7">
+        <v>744054</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1061</v>
+      </c>
+      <c r="I17" s="7">
+        <v>704371</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2125</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1448425</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1065</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>744844</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1061</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>704371</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>2126</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1449215</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP1016-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1016-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BCF9238-55B6-42BB-B1D4-616FF4BEDF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{052F776C-188C-42C0-8080-DAD06294B6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8F860878-4C55-4F36-994D-0788072D2363}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{23D67277-7965-4736-8A2F-3950B59CF87D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="114">
   <si>
     <t>Menores según si padecen tumor maligno en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -235,13 +235,13 @@
     <t>0,44%</t>
   </si>
   <si>
-    <t>2,22%</t>
+    <t>2,65%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,24%</t>
+    <t>1,12%</t>
   </si>
   <si>
     <t>99,16%</t>
@@ -250,13 +250,13 @@
     <t>99,56%</t>
   </si>
   <si>
-    <t>97,78%</t>
+    <t>97,35%</t>
   </si>
   <si>
     <t>99,78%</t>
   </si>
   <si>
-    <t>98,76%</t>
+    <t>98,88%</t>
   </si>
   <si>
     <t>0,73%</t>
@@ -280,46 +280,52 @@
     <t>0,1%</t>
   </si>
   <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen tumor maligno en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
     <t>99,42%</t>
   </si>
   <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen tumor maligno en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>2,09%</t>
+    <t>2,11%</t>
   </si>
   <si>
     <t>0,7%</t>
@@ -328,10 +334,13 @@
     <t>0,21%</t>
   </si>
   <si>
+    <t>1,2%</t>
+  </si>
+  <si>
     <t>99,58%</t>
   </si>
   <si>
-    <t>97,91%</t>
+    <t>97,89%</t>
   </si>
   <si>
     <t>99,3%</t>
@@ -340,6 +349,9 @@
     <t>99,79%</t>
   </si>
   <si>
+    <t>98,8%</t>
+  </si>
+  <si>
     <t>0,81%</t>
   </si>
   <si>
@@ -361,13 +373,13 @@
     <t>0,11%</t>
   </si>
   <si>
-    <t>0,33%</t>
+    <t>0,53%</t>
   </si>
   <si>
     <t>99,89%</t>
   </si>
   <si>
-    <t>99,67%</t>
+    <t>99,47%</t>
   </si>
 </sst>
 </file>
@@ -779,7 +791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4E6BFD-4442-4B52-B911-5538F90FC9FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9CDA3E-9EAB-4F3C-9623-2277EF66D5F5}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1686,7 +1698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB1ED13-0BCF-4BA2-B495-D2914BE2EFDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBA4471-280F-45C5-A9E9-14E2CF340B75}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2593,7 +2605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267BB423-AF2A-4B76-8AFD-009F031F7978}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DFE3A0-A255-4F25-9F31-19F3A26D40B2}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2893,7 +2905,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2941,7 +2953,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3027,13 +3039,13 @@
         <v>790</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3048,7 +3060,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -3057,13 +3069,13 @@
         <v>790</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,10 +3090,10 @@
         <v>187782</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -3096,7 +3108,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3108,10 +3120,10 @@
         <v>376681</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -3188,7 +3200,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3203,7 +3215,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3218,7 +3230,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,7 +3248,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -3251,7 +3263,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -3266,7 +3278,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3337,13 +3349,13 @@
         <v>790</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3373,7 +3385,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3388,10 +3400,10 @@
         <v>744054</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -3421,7 +3433,7 @@
         <v>85</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>

--- a/data/trans_orig/IP1016-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1016-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{052F776C-188C-42C0-8080-DAD06294B6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA9B2E80-76C0-4457-AE57-D80F224E737E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{23D67277-7965-4736-8A2F-3950B59CF87D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2E9408F6-6742-4A06-A120-86D12DD24A73}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="110">
   <si>
     <t>Menores según si padecen tumor maligno en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -79,12 +79,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>1,18%</t>
+  </si>
+  <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
     <t>0,56%</t>
   </si>
   <si>
@@ -94,96 +94,96 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>98,95%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
     <t>99,44%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>0,51%</t>
+  </si>
+  <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
     <t>0,25%</t>
   </si>
   <si>
+    <t>99,49%</t>
+  </si>
+  <si>
     <t>99,5%</t>
   </si>
   <si>
-    <t>99,49%</t>
-  </si>
-  <si>
     <t>99,75%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>1,0%</t>
+  </si>
+  <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
     <t>0,48%</t>
   </si>
   <si>
+    <t>99,0%</t>
+  </si>
+  <si>
     <t>99,1%</t>
   </si>
   <si>
-    <t>99,0%</t>
-  </si>
-  <si>
     <t>99,52%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>0,67%</t>
+  </si>
+  <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
     <t>0,32%</t>
   </si>
   <si>
+    <t>99,33%</t>
+  </si>
+  <si>
     <t>99,38%</t>
   </si>
   <si>
-    <t>99,33%</t>
-  </si>
-  <si>
     <t>99,68%</t>
   </si>
   <si>
+    <t>0,19%</t>
+  </si>
+  <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
     <t>0,09%</t>
   </si>
   <si>
+    <t>99,81%</t>
+  </si>
+  <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>99,81%</t>
-  </si>
-  <si>
     <t>99,91%</t>
   </si>
   <si>
@@ -193,193 +193,181 @@
     <t>Menores según si padecen tumor maligno en 2012 (Tasa respuesta: 99,29%)</t>
   </si>
   <si>
+    <t>0,88%</t>
+  </si>
+  <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
     <t>0,45%</t>
   </si>
   <si>
+    <t>99,12%</t>
+  </si>
+  <si>
     <t>99,07%</t>
   </si>
   <si>
-    <t>99,12%</t>
-  </si>
-  <si>
     <t>99,55%</t>
   </si>
   <si>
+    <t>0,57%</t>
+  </si>
+  <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>0,57%</t>
-  </si>
-  <si>
     <t>0,27%</t>
   </si>
   <si>
+    <t>99,43%</t>
+  </si>
+  <si>
     <t>99,48%</t>
   </si>
   <si>
-    <t>99,43%</t>
-  </si>
-  <si>
     <t>99,73%</t>
   </si>
   <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,12%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
   </si>
   <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
     <t>99,78%</t>
   </si>
   <si>
-    <t>98,88%</t>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
     <t>0,38%</t>
   </si>
   <si>
+    <t>99,21%</t>
+  </si>
+  <si>
     <t>99,27%</t>
   </si>
   <si>
-    <t>99,21%</t>
-  </si>
-  <si>
     <t>99,62%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
     <t>99,9%</t>
   </si>
   <si>
-    <t>99,36%</t>
-  </si>
-  <si>
     <t>99,95%</t>
   </si>
   <si>
-    <t>99,77%</t>
-  </si>
-  <si>
     <t>Menores según si padecen tumor maligno en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>0,91%</t>
+  </si>
+  <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>0,91%</t>
+    <t>99,09%</t>
   </si>
   <si>
     <t>98,98%</t>
   </si>
   <si>
-    <t>99,09%</t>
-  </si>
-  <si>
     <t>0,58%</t>
   </si>
   <si>
     <t>99,42%</t>
   </si>
   <si>
+    <t>0,7%</t>
+  </si>
+  <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
+    <t>2,85%</t>
   </si>
   <si>
     <t>0,21%</t>
   </si>
   <si>
-    <t>1,2%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
   </si>
   <si>
     <t>99,58%</t>
   </si>
   <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
+    <t>97,15%</t>
   </si>
   <si>
     <t>99,79%</t>
   </si>
   <si>
-    <t>98,8%</t>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
     <t>0,4%</t>
   </si>
   <si>
+    <t>99,22%</t>
+  </si>
+  <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>99,22%</t>
-  </si>
-  <si>
     <t>99,6%</t>
   </si>
   <si>
     <t>0,11%</t>
   </si>
   <si>
-    <t>0,53%</t>
+    <t>0,46%</t>
   </si>
   <si>
     <t>99,89%</t>
   </si>
   <si>
-    <t>99,47%</t>
+    <t>99,54%</t>
   </si>
 </sst>
 </file>
@@ -791,7 +779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9CDA3E-9EAB-4F3C-9623-2277EF66D5F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BFB386-3AA6-4408-B3E9-85E116FE6874}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -960,10 +948,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="D5" s="7">
-        <v>121380</v>
+        <v>106171</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -975,10 +963,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="I5" s="7">
-        <v>106171</v>
+        <v>121380</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1011,25 +999,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>162</v>
+      </c>
+      <c r="D6" s="7">
+        <v>106171</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>182</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>121380</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>162</v>
-      </c>
-      <c r="I6" s="7">
-        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1115,10 +1103,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D8" s="7">
-        <v>253756</v>
+        <v>253205</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -1130,10 +1118,10 @@
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="I8" s="7">
-        <v>253205</v>
+        <v>253756</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
@@ -1166,25 +1154,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>379</v>
+      </c>
+      <c r="D9" s="7">
+        <v>253205</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>382</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>253756</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>379</v>
-      </c>
-      <c r="I9" s="7">
-        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1270,10 +1258,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="D11" s="7">
-        <v>141515</v>
+        <v>127548</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -1285,10 +1273,10 @@
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="I11" s="7">
-        <v>127548</v>
+        <v>141515</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
@@ -1321,25 +1309,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>191</v>
+      </c>
+      <c r="D12" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>212</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>141515</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>191</v>
-      </c>
-      <c r="I12" s="7">
-        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1425,10 +1413,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="D14" s="7">
-        <v>206049</v>
+        <v>194097</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -1440,10 +1428,10 @@
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="I14" s="7">
-        <v>194097</v>
+        <v>206049</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
@@ -1476,25 +1464,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>286</v>
+      </c>
+      <c r="D15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>310</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>206049</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>286</v>
-      </c>
-      <c r="I15" s="7">
-        <v>194097</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1580,10 +1568,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1086</v>
+        <v>1018</v>
       </c>
       <c r="D17" s="7">
-        <v>722700</v>
+        <v>681021</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
@@ -1595,10 +1583,10 @@
         <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>1018</v>
+        <v>1086</v>
       </c>
       <c r="I17" s="7">
-        <v>681021</v>
+        <v>722700</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
@@ -1631,25 +1619,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>681021</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1086</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1698,7 +1686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBA4471-280F-45C5-A9E9-14E2CF340B75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956C3C50-2F31-4960-8165-BA19C9329C85}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1867,10 +1855,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="D5" s="7">
-        <v>144513</v>
+        <v>146281</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1882,10 +1870,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="I5" s="7">
-        <v>146281</v>
+        <v>144513</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1918,25 +1906,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>218</v>
+      </c>
+      <c r="D6" s="7">
+        <v>146281</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>205</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>144513</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>218</v>
-      </c>
-      <c r="I6" s="7">
-        <v>146281</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2022,10 +2010,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>371</v>
+        <v>337</v>
       </c>
       <c r="D8" s="7">
-        <v>267101</v>
+        <v>234476</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -2037,10 +2025,10 @@
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="I8" s="7">
-        <v>234476</v>
+        <v>267101</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
@@ -2073,25 +2061,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>337</v>
+      </c>
+      <c r="D9" s="7">
+        <v>234476</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>371</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>267101</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>337</v>
-      </c>
-      <c r="I9" s="7">
-        <v>234476</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2126,31 +2114,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>680</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>65</v>
@@ -2177,34 +2165,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>219</v>
+      </c>
+      <c r="D11" s="7">
+        <v>154154</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="7">
         <v>228</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>158571</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7">
-        <v>219</v>
-      </c>
-      <c r="I11" s="7">
-        <v>154154</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>70</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>447</v>
@@ -2228,25 +2216,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>220</v>
+      </c>
+      <c r="D12" s="7">
+        <v>154834</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>228</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>158571</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>220</v>
-      </c>
-      <c r="I12" s="7">
-        <v>154834</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2332,10 +2320,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="D14" s="7">
-        <v>177957</v>
+        <v>171337</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -2347,10 +2335,10 @@
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="I14" s="7">
-        <v>171337</v>
+        <v>177957</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
@@ -2383,25 +2371,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>243</v>
+      </c>
+      <c r="D15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>262</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>177957</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>243</v>
-      </c>
-      <c r="I15" s="7">
-        <v>171337</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2436,34 +2424,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>680</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -2472,13 +2460,13 @@
         <v>680</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2487,34 +2475,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1017</v>
+      </c>
+      <c r="D17" s="7">
+        <v>706248</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
         <v>1066</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>748142</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1017</v>
-      </c>
-      <c r="I17" s="7">
-        <v>706248</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
         <v>2083</v>
@@ -2523,10 +2511,10 @@
         <v>1454390</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -2538,25 +2526,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>706928</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1066</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>748142</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>706928</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2605,7 +2593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DFE3A0-A255-4F25-9F31-19F3A26D40B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BDC179-0F7B-44C9-8C9B-7F83CBD4352C}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2622,7 +2610,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2735,7 +2723,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2750,7 +2738,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2774,31 +2762,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>211</v>
+      </c>
+      <c r="D5" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
         <v>187</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>124164</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>211</v>
-      </c>
-      <c r="I5" s="7">
-        <v>131654</v>
-      </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2825,25 +2813,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>211</v>
+      </c>
+      <c r="D6" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>187</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>124164</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>211</v>
-      </c>
-      <c r="I6" s="7">
-        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2890,7 +2878,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2905,7 +2893,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2929,31 +2917,31 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>332</v>
+      </c>
+      <c r="D8" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
         <v>380</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>258061</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7">
-        <v>332</v>
-      </c>
-      <c r="I8" s="7">
-        <v>210517</v>
-      </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2980,25 +2968,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>332</v>
+      </c>
+      <c r="D9" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>380</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>258061</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>332</v>
-      </c>
-      <c r="I9" s="7">
-        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3033,34 +3021,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>790</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -3069,13 +3057,13 @@
         <v>790</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,34 +3072,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>272</v>
+      </c>
+      <c r="D11" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
         <v>262</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>187782</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="7">
-        <v>272</v>
-      </c>
-      <c r="I11" s="7">
-        <v>188899</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7">
         <v>534</v>
@@ -3120,10 +3108,10 @@
         <v>376681</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -3135,25 +3123,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>272</v>
+      </c>
+      <c r="D12" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>263</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>188572</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>272</v>
-      </c>
-      <c r="I12" s="7">
-        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3200,7 +3188,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3215,7 +3203,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3230,7 +3218,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,31 +3227,31 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>246</v>
+      </c>
+      <c r="D14" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
         <v>235</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>174048</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="7">
-        <v>246</v>
-      </c>
-      <c r="I14" s="7">
-        <v>173301</v>
-      </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -3278,7 +3266,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3290,25 +3278,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>246</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>235</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>174048</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>246</v>
-      </c>
-      <c r="I15" s="7">
-        <v>173301</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3343,34 +3331,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>790</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3379,7 +3367,7 @@
         <v>790</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
@@ -3394,34 +3382,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1061</v>
+      </c>
+      <c r="D17" s="7">
+        <v>704371</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="7">
         <v>1064</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>744054</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I17" s="7">
-        <v>704371</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M17" s="7">
         <v>2125</v>
@@ -3430,7 +3418,7 @@
         <v>1448425</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>62</v>
@@ -3445,25 +3433,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1061</v>
+      </c>
+      <c r="D18" s="7">
+        <v>704371</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1065</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
